--- a/data/player_comparisons_with_ranks.xlsx
+++ b/data/player_comparisons_with_ranks.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -504,88 +504,88 @@
         </is>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Pacome Dadiet</t>
+          <t>Jalen Brunson</t>
         </is>
       </c>
       <c r="E2">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="I2">
-        <v>111</v>
+        <v>2301</v>
       </c>
       <c r="J2">
-        <v>3.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K2">
-        <v>10.1</v>
+        <v>18.8</v>
       </c>
       <c r="L2">
-        <v>1.3</v>
+        <v>5.8</v>
       </c>
       <c r="M2">
-        <v>1.9</v>
+        <v>7</v>
       </c>
       <c r="N2">
-        <v>5.8</v>
+        <v>2.9</v>
       </c>
       <c r="O2">
-        <v>1.6</v>
+        <v>7.4</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="Q2">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="R2">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="S2">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="T2">
-        <v>9.699999999999999</v>
+        <v>26.4</v>
       </c>
       <c r="U2">
-        <v>6.3</v>
+        <v>21.6</v>
       </c>
       <c r="V2">
-        <v>-10.2</v>
+        <v>2.1</v>
       </c>
       <c r="W2">
-        <v>9.300000000000001</v>
+        <v>24.2</v>
       </c>
       <c r="X2">
-        <v>4.1</v>
+        <v>7.95</v>
       </c>
       <c r="Y2">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="Z2">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -593,11 +593,11 @@
         </is>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tony Bradley</t>
+          <t>Thomas Bryant</t>
         </is>
       </c>
       <c r="E3">
@@ -609,76 +609,76 @@
         </is>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I3">
-        <v>113</v>
+        <v>848</v>
       </c>
       <c r="J3">
-        <v>9.199999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="K3">
-        <v>14.3</v>
+        <v>12.4</v>
       </c>
       <c r="L3">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="M3">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="N3">
-        <v>13.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="O3">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="P3">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="Q3">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="R3">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="S3">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="T3">
-        <v>19.4</v>
+        <v>16.5</v>
       </c>
       <c r="U3">
-        <v>23.2</v>
+        <v>17.4</v>
       </c>
       <c r="V3">
-        <v>18.1</v>
+        <v>-2.6</v>
       </c>
       <c r="W3">
-        <v>27.3</v>
+        <v>21.4</v>
       </c>
       <c r="X3">
-        <v>17.2</v>
+        <v>12.5</v>
       </c>
       <c r="Y3">
-        <v>3</v>
+        <v>17.5</v>
       </c>
       <c r="Z3">
-        <v>3</v>
+        <v>54.5</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>Indiana Pacers</t>
         </is>
       </c>
       <c r="C4">
@@ -686,173 +686,173 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Joe Ingles</t>
+          <t>T.J. McConnell</t>
         </is>
       </c>
       <c r="E4">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>114</v>
+        <v>1415</v>
       </c>
       <c r="J4">
-        <v>1.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K4">
-        <v>7.3</v>
+        <v>15.9</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4">
-        <v>3.5</v>
+        <v>4.9</v>
       </c>
       <c r="O4">
-        <v>7.3</v>
+        <v>8.9</v>
       </c>
       <c r="P4">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R4">
         <v>2.8</v>
       </c>
       <c r="S4">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="T4">
-        <v>4.7</v>
+        <v>18.3</v>
       </c>
       <c r="U4">
-        <v>2.4</v>
+        <v>18.4</v>
       </c>
       <c r="V4">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="W4">
-        <v>7.9</v>
+        <v>23.2</v>
       </c>
       <c r="X4">
-        <v>0.45</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Y4">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="Z4">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OKC Thunder</t>
+          <t>Indiana Pacers</t>
         </is>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Alex Ducas</t>
+          <t>Obi Toppin</t>
         </is>
       </c>
       <c r="E5">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>125</v>
+        <v>1545</v>
       </c>
       <c r="J5">
-        <v>3.5</v>
+        <v>7.4</v>
       </c>
       <c r="K5">
-        <v>8.6</v>
+        <v>14</v>
       </c>
       <c r="L5">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="M5">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="N5">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="O5">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="P5">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="R5">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="S5">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="T5">
-        <v>10.4</v>
+        <v>19.4</v>
       </c>
       <c r="U5">
-        <v>10.1</v>
+        <v>17.4</v>
       </c>
       <c r="V5">
-        <v>-6.5</v>
+        <v>-2.6</v>
       </c>
       <c r="W5">
-        <v>14.4</v>
+        <v>22.1</v>
       </c>
       <c r="X5">
-        <v>8.15</v>
+        <v>11.55</v>
       </c>
       <c r="Y5">
-        <v>51</v>
+        <v>17.5</v>
       </c>
       <c r="Z5">
-        <v>51</v>
+        <v>54.5</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -860,11 +860,11 @@
         </is>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Enrique Freeman</t>
+          <t>Tyrese Haliburton</t>
         </is>
       </c>
       <c r="E6">
@@ -872,177 +872,177 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="G6">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="I6">
-        <v>181</v>
+        <v>2451</v>
       </c>
       <c r="J6">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="K6">
-        <v>7.4</v>
+        <v>14.8</v>
       </c>
       <c r="L6">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="M6">
+        <v>3.3</v>
+      </c>
+      <c r="N6">
         <v>3.8</v>
       </c>
-      <c r="N6">
-        <v>6</v>
-      </c>
       <c r="O6">
+        <v>9.9</v>
+      </c>
+      <c r="P6">
+        <v>1.5</v>
+      </c>
+      <c r="Q6">
+        <v>0.7</v>
+      </c>
+      <c r="R6">
         <v>1.8</v>
       </c>
-      <c r="P6">
-        <v>0.6</v>
-      </c>
-      <c r="Q6">
-        <v>0.6</v>
-      </c>
-      <c r="R6">
-        <v>1.2</v>
-      </c>
       <c r="S6">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="T6">
-        <v>9.1</v>
+        <v>20</v>
       </c>
       <c r="U6">
-        <v>7.4</v>
+        <v>21.8</v>
       </c>
       <c r="V6">
-        <v>-6</v>
+        <v>3.3</v>
       </c>
       <c r="W6">
-        <v>10.9</v>
+        <v>25.1</v>
       </c>
       <c r="X6">
-        <v>4.3</v>
+        <v>11.65</v>
       </c>
       <c r="Y6">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="Z6">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OKC Thunder</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Adam Flagler</t>
+          <t>Luka Garza</t>
         </is>
       </c>
       <c r="E7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="J7">
-        <v>4.4</v>
+        <v>8.5</v>
       </c>
       <c r="K7">
-        <v>17</v>
+        <v>17.3</v>
       </c>
       <c r="L7">
-        <v>0.2</v>
+        <v>3.9</v>
       </c>
       <c r="M7">
-        <v>0.4</v>
+        <v>5.8</v>
       </c>
       <c r="N7">
-        <v>4.8</v>
+        <v>8.9</v>
       </c>
       <c r="O7">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="P7">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="Q7">
         <v>0.5</v>
       </c>
       <c r="R7">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="S7">
-        <v>2.7</v>
+        <v>4.8</v>
       </c>
       <c r="T7">
-        <v>11.5</v>
+        <v>22.7</v>
       </c>
       <c r="U7">
-        <v>3.7</v>
+        <v>18.8</v>
       </c>
       <c r="V7">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="W7">
-        <v>6.3</v>
+        <v>21.7</v>
       </c>
       <c r="X7">
-        <v>-0.25</v>
+        <v>9.15</v>
       </c>
       <c r="Y7">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="Z7">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NY Knicks</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Ariel Hukporti</t>
+          <t>Josh Minott</t>
         </is>
       </c>
       <c r="E8">
@@ -1050,76 +1050,76 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="G8">
+        <v>46</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>276</v>
+      </c>
+      <c r="J8">
+        <v>5.7</v>
+      </c>
+      <c r="K8">
+        <v>11.7</v>
+      </c>
+      <c r="L8">
+        <v>2.2</v>
+      </c>
+      <c r="M8">
+        <v>2.5</v>
+      </c>
+      <c r="N8">
+        <v>6.1</v>
+      </c>
+      <c r="O8">
+        <v>2.3</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>1.6</v>
+      </c>
+      <c r="R8">
+        <v>1.4</v>
+      </c>
+      <c r="S8">
+        <v>4.4</v>
+      </c>
+      <c r="T8">
+        <v>15.5</v>
+      </c>
+      <c r="U8">
+        <v>15.5</v>
+      </c>
+      <c r="V8">
+        <v>-1.2</v>
+      </c>
+      <c r="W8">
+        <v>18.2</v>
+      </c>
+      <c r="X8">
+        <v>9</v>
+      </c>
+      <c r="Y8">
         <v>25</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>217</v>
-      </c>
-      <c r="J8">
-        <v>3.5</v>
-      </c>
-      <c r="K8">
-        <v>5.1</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>2.2</v>
-      </c>
-      <c r="N8">
-        <v>8.5</v>
-      </c>
-      <c r="O8">
-        <v>1.8</v>
-      </c>
-      <c r="P8">
-        <v>0.2</v>
-      </c>
-      <c r="Q8">
-        <v>2.5</v>
-      </c>
-      <c r="R8">
-        <v>3.5</v>
-      </c>
-      <c r="S8">
-        <v>5.3</v>
-      </c>
-      <c r="T8">
-        <v>8</v>
-      </c>
-      <c r="U8">
-        <v>7.6</v>
-      </c>
-      <c r="V8">
-        <v>-13.4</v>
-      </c>
-      <c r="W8">
-        <v>12.2</v>
-      </c>
-      <c r="X8">
-        <v>6.5</v>
-      </c>
-      <c r="Y8">
-        <v>57</v>
-      </c>
       <c r="Z8">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1127,88 +1127,88 @@
         </is>
       </c>
       <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Anthony Edwards</t>
+        </is>
+      </c>
+      <c r="E9">
+        <v>23</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="G9">
+        <v>79</v>
+      </c>
+      <c r="H9">
+        <v>79</v>
+      </c>
+      <c r="I9">
+        <v>2871</v>
+      </c>
+      <c r="J9">
         <v>9</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Luka Garza</t>
-        </is>
-      </c>
-      <c r="E9">
-        <v>26</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G9">
-        <v>39</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>219</v>
-      </c>
-      <c r="J9">
-        <v>8.5</v>
-      </c>
       <c r="K9">
-        <v>17.3</v>
+        <v>20.2</v>
       </c>
       <c r="L9">
-        <v>3.9</v>
+        <v>5.2</v>
       </c>
       <c r="M9">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="N9">
-        <v>8.9</v>
+        <v>5.6</v>
       </c>
       <c r="O9">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="Q9">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="S9">
-        <v>4.8</v>
+        <v>1.9</v>
       </c>
       <c r="T9">
-        <v>22.7</v>
+        <v>27.3</v>
       </c>
       <c r="U9">
-        <v>18.8</v>
+        <v>20.1</v>
       </c>
       <c r="V9">
-        <v>2.4</v>
+        <v>4.7</v>
       </c>
       <c r="W9">
-        <v>21.7</v>
+        <v>23.2</v>
       </c>
       <c r="X9">
-        <v>9.15</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y9">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Z9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1216,266 +1216,266 @@
         </is>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Delon Wright</t>
+          <t>Karl-Anthony Towns</t>
         </is>
       </c>
       <c r="E10">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="I10">
-        <v>230</v>
+        <v>2517</v>
       </c>
       <c r="J10">
+        <v>9.1</v>
+      </c>
+      <c r="K10">
+        <v>17.4</v>
+      </c>
+      <c r="L10">
+        <v>4.8</v>
+      </c>
+      <c r="M10">
+        <v>5.8</v>
+      </c>
+      <c r="N10">
+        <v>13.2</v>
+      </c>
+      <c r="O10">
+        <v>3.2</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>0.7</v>
+      </c>
+      <c r="R10">
+        <v>2.7</v>
+      </c>
+      <c r="S10">
         <v>3.6</v>
       </c>
-      <c r="K10">
-        <v>7.7</v>
-      </c>
-      <c r="L10">
-        <v>0.9</v>
-      </c>
-      <c r="M10">
-        <v>1.4</v>
-      </c>
-      <c r="N10">
-        <v>3.1</v>
-      </c>
-      <c r="O10">
-        <v>4.5</v>
-      </c>
-      <c r="P10">
-        <v>1.9</v>
-      </c>
-      <c r="Q10">
-        <v>0.5</v>
-      </c>
-      <c r="R10">
-        <v>1.3</v>
-      </c>
-      <c r="S10">
-        <v>1.3</v>
-      </c>
       <c r="T10">
-        <v>9.4</v>
+        <v>25.2</v>
       </c>
       <c r="U10">
-        <v>12.4</v>
+        <v>23.4</v>
       </c>
       <c r="V10">
-        <v>-1.3</v>
+        <v>6.2</v>
       </c>
       <c r="W10">
-        <v>13</v>
+        <v>30.6</v>
       </c>
       <c r="X10">
-        <v>6.55</v>
+        <v>16.55</v>
       </c>
       <c r="Y10">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="Z10">
-        <v>39</v>
+        <v>25.5</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>OKC Thunder</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Branden Carlson</t>
+          <t>Julius Randle</t>
         </is>
       </c>
       <c r="E11">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="G11">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="I11">
-        <v>246</v>
+        <v>2226</v>
       </c>
       <c r="J11">
-        <v>6.3</v>
+        <v>7.4</v>
       </c>
       <c r="K11">
-        <v>14.2</v>
+        <v>15.2</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>4.4</v>
       </c>
       <c r="M11">
-        <v>2.6</v>
+        <v>5.4</v>
       </c>
       <c r="N11">
         <v>7.9</v>
       </c>
       <c r="O11">
-        <v>2</v>
+        <v>5.2</v>
       </c>
       <c r="P11">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="Q11">
-        <v>3.1</v>
+        <v>0.3</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="S11">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="T11">
-        <v>17.9</v>
+        <v>20.8</v>
       </c>
       <c r="U11">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="V11">
-        <v>7.8</v>
+        <v>3.4</v>
       </c>
       <c r="W11">
-        <v>19</v>
+        <v>22.7</v>
       </c>
       <c r="X11">
-        <v>10.95</v>
+        <v>9.75</v>
       </c>
       <c r="Y11">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z11">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>Indiana Pacers</t>
         </is>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Josh Minott</t>
+          <t>Quenton Jackson</t>
         </is>
       </c>
       <c r="E12">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="G12">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I12">
-        <v>276</v>
+        <v>381</v>
       </c>
       <c r="J12">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="K12">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="L12">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="M12">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="N12">
-        <v>6.1</v>
+        <v>4.2</v>
       </c>
       <c r="O12">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="P12">
         <v>2</v>
       </c>
       <c r="Q12">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="R12">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="S12">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="T12">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="U12">
-        <v>15.5</v>
+        <v>14.7</v>
       </c>
       <c r="V12">
-        <v>-1.2</v>
+        <v>0.7</v>
       </c>
       <c r="W12">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="X12">
-        <v>9</v>
+        <v>7.3</v>
       </c>
       <c r="Y12">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Z12">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1483,88 +1483,88 @@
         </is>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Mitchell Robinson</t>
+          <t>Josh Hart</t>
         </is>
       </c>
       <c r="E13">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="G13">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="I13">
-        <v>290</v>
+        <v>2897</v>
       </c>
       <c r="J13">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="K13">
-        <v>7</v>
+        <v>9.6</v>
       </c>
       <c r="L13">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="M13">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N13">
-        <v>12.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O13">
-        <v>1.6</v>
+        <v>5.6</v>
       </c>
       <c r="P13">
+        <v>1.5</v>
+      </c>
+      <c r="Q13">
+        <v>0.3</v>
+      </c>
+      <c r="R13">
         <v>2</v>
       </c>
-      <c r="Q13">
-        <v>2.2</v>
-      </c>
-      <c r="R13">
-        <v>1.2</v>
-      </c>
       <c r="S13">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="T13">
-        <v>10.8</v>
+        <v>13.1</v>
       </c>
       <c r="U13">
-        <v>20.4</v>
+        <v>16.5</v>
       </c>
       <c r="V13">
-        <v>7.1</v>
+        <v>3.6</v>
       </c>
       <c r="W13">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="X13">
-        <v>16.2</v>
+        <v>12.65</v>
       </c>
       <c r="Y13">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="Z13">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1572,266 +1572,266 @@
         </is>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Tyler Kolek</t>
+          <t>Precious Achiuwa</t>
         </is>
       </c>
       <c r="E14">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G14">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I14">
-        <v>296</v>
+        <v>1170</v>
       </c>
       <c r="J14">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="K14">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="L14">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="M14">
         <v>2.1</v>
       </c>
       <c r="N14">
-        <v>3.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O14">
-        <v>8.5</v>
+        <v>1.7</v>
       </c>
       <c r="P14">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q14">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="R14">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="S14">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="T14">
-        <v>9.9</v>
+        <v>11.7</v>
       </c>
       <c r="U14">
-        <v>10.3</v>
+        <v>13.6</v>
       </c>
       <c r="V14">
-        <v>0.4</v>
+        <v>-0.9</v>
       </c>
       <c r="W14">
-        <v>13.8</v>
+        <v>17.3</v>
       </c>
       <c r="X14">
-        <v>4.35</v>
+        <v>10.6</v>
       </c>
       <c r="Y14">
-        <v>49</v>
+        <v>34.5</v>
       </c>
       <c r="Z14">
         <v>49</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>Indiana Pacers</t>
         </is>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Terrence Shannon Jr.</t>
+          <t>Pascal Siakam</t>
         </is>
       </c>
       <c r="E15">
+        <v>30</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>PF</t>
+        </is>
+      </c>
+      <c r="G15">
+        <v>78</v>
+      </c>
+      <c r="H15">
+        <v>78</v>
+      </c>
+      <c r="I15">
+        <v>2548</v>
+      </c>
+      <c r="J15">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="K15">
+        <v>16.7</v>
+      </c>
+      <c r="L15">
+        <v>3.2</v>
+      </c>
+      <c r="M15">
+        <v>4.4</v>
+      </c>
+      <c r="N15">
+        <v>7.6</v>
+      </c>
+      <c r="O15">
+        <v>3.7</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>0.6</v>
+      </c>
+      <c r="R15">
+        <v>1.5</v>
+      </c>
+      <c r="S15">
+        <v>2.7</v>
+      </c>
+      <c r="T15">
+        <v>22.3</v>
+      </c>
+      <c r="U15">
+        <v>19.2</v>
+      </c>
+      <c r="V15">
+        <v>6.3</v>
+      </c>
+      <c r="W15">
+        <v>23.9</v>
+      </c>
+      <c r="X15">
+        <v>11.3</v>
+      </c>
+      <c r="Y15">
+        <v>9.5</v>
+      </c>
+      <c r="Z15">
         <v>24</v>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="G15">
-        <v>32</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>339</v>
-      </c>
-      <c r="J15">
-        <v>5.8</v>
-      </c>
-      <c r="K15">
-        <v>12.1</v>
-      </c>
-      <c r="L15">
-        <v>1.8</v>
-      </c>
-      <c r="M15">
-        <v>2.2</v>
-      </c>
-      <c r="N15">
-        <v>5</v>
-      </c>
-      <c r="O15">
-        <v>3.4</v>
-      </c>
-      <c r="P15">
-        <v>0.7</v>
-      </c>
-      <c r="Q15">
-        <v>0.5</v>
-      </c>
-      <c r="R15">
-        <v>1.6</v>
-      </c>
-      <c r="S15">
-        <v>2.9</v>
-      </c>
-      <c r="T15">
-        <v>14.7</v>
-      </c>
-      <c r="U15">
-        <v>11.9</v>
-      </c>
-      <c r="V15">
-        <v>2.6</v>
-      </c>
-      <c r="W15">
-        <v>15.5</v>
-      </c>
-      <c r="X15">
-        <v>6.1</v>
-      </c>
-      <c r="Y15">
-        <v>43.5</v>
-      </c>
-      <c r="Z15">
-        <v>43.5</v>
-      </c>
       <c r="AA15">
-        <v>0</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Indiana Pacers</t>
+          <t>NY Knicks</t>
         </is>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Johnny Furphy</t>
+          <t>Delon Wright</t>
         </is>
       </c>
       <c r="E16">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="G16">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I16">
-        <v>379</v>
+        <v>230</v>
       </c>
       <c r="J16">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="K16">
-        <v>8.699999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="L16">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="M16">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="N16">
-        <v>6.7</v>
+        <v>3.1</v>
       </c>
       <c r="O16">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="P16">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R16">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="S16">
-        <v>3.9</v>
+        <v>1.3</v>
       </c>
       <c r="T16">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="U16">
-        <v>9.800000000000001</v>
+        <v>12.4</v>
       </c>
       <c r="V16">
-        <v>2.6</v>
+        <v>-1.3</v>
       </c>
       <c r="W16">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="X16">
-        <v>6.8</v>
+        <v>6.55</v>
       </c>
       <c r="Y16">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="Z16">
-        <v>53</v>
+        <v>52.5</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1839,177 +1839,177 @@
         </is>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Quenton Jackson</t>
+          <t>Jarace Walker</t>
         </is>
       </c>
       <c r="E17">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="G17">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I17">
-        <v>381</v>
+        <v>1187</v>
       </c>
       <c r="J17">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="K17">
-        <v>11.5</v>
+        <v>10.9</v>
       </c>
       <c r="L17">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="M17">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="N17">
-        <v>4.2</v>
+        <v>6.9</v>
       </c>
       <c r="O17">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P17">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="Q17">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="R17">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="S17">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="T17">
-        <v>15.3</v>
+        <v>14</v>
       </c>
       <c r="U17">
-        <v>14.7</v>
+        <v>11.9</v>
       </c>
       <c r="V17">
-        <v>0.7</v>
+        <v>-5.4</v>
       </c>
       <c r="W17">
-        <v>18.1</v>
+        <v>17</v>
       </c>
       <c r="X17">
-        <v>7.3</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="Y17">
-        <v>27</v>
+        <v>43.5</v>
       </c>
       <c r="Z17">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="AA17">
-        <v>0</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>OKC Thunder</t>
+          <t>Indiana Pacers</t>
         </is>
       </c>
       <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Myles Turner</t>
+        </is>
+      </c>
+      <c r="E18">
+        <v>28</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G18">
+        <v>72</v>
+      </c>
+      <c r="H18">
+        <v>72</v>
+      </c>
+      <c r="I18">
+        <v>2174</v>
+      </c>
+      <c r="J18">
+        <v>6.5</v>
+      </c>
+      <c r="K18">
+        <v>13.4</v>
+      </c>
+      <c r="L18">
         <v>3</v>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Ousmane Dieng</t>
-        </is>
-      </c>
-      <c r="E18">
-        <v>21</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G18">
-        <v>37</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>405</v>
-      </c>
-      <c r="J18">
-        <v>4.8</v>
-      </c>
-      <c r="K18">
-        <v>11.1</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
       <c r="M18">
-        <v>1.4</v>
+        <v>3.9</v>
       </c>
       <c r="N18">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="O18">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="P18">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="Q18">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="R18">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="S18">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="T18">
-        <v>12.6</v>
+        <v>18.5</v>
       </c>
       <c r="U18">
-        <v>11.5</v>
+        <v>16.1</v>
       </c>
       <c r="V18">
-        <v>6</v>
+        <v>3.9</v>
       </c>
       <c r="W18">
-        <v>15.8</v>
+        <v>19.2</v>
       </c>
       <c r="X18">
-        <v>8.15</v>
+        <v>10.45</v>
       </c>
       <c r="Y18">
-        <v>47</v>
+        <v>21.5</v>
       </c>
       <c r="Z18">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -2017,11 +2017,11 @@
         </is>
       </c>
       <c r="C19">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Jericho Sims</t>
+          <t>Mitchell Robinson</t>
         </is>
       </c>
       <c r="E19">
@@ -2033,161 +2033,161 @@
         </is>
       </c>
       <c r="G19">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>422</v>
+        <v>290</v>
       </c>
       <c r="J19">
+        <v>4.6</v>
+      </c>
+      <c r="K19">
+        <v>7</v>
+      </c>
+      <c r="L19">
+        <v>1.6</v>
+      </c>
+      <c r="M19">
         <v>2.4</v>
       </c>
-      <c r="K19">
-        <v>3.9</v>
-      </c>
-      <c r="L19">
-        <v>0.7</v>
-      </c>
-      <c r="M19">
-        <v>1.1</v>
-      </c>
       <c r="N19">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="O19">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="P19">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="Q19">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="R19">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="S19">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="T19">
-        <v>5.5</v>
+        <v>10.8</v>
       </c>
       <c r="U19">
-        <v>9.9</v>
+        <v>20.4</v>
       </c>
       <c r="V19">
-        <v>4</v>
+        <v>7.1</v>
       </c>
       <c r="W19">
-        <v>15.4</v>
+        <v>22.5</v>
       </c>
       <c r="X19">
-        <v>10.4</v>
+        <v>16.2</v>
       </c>
       <c r="Y19">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="Z19">
-        <v>52</v>
+        <v>18.5</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>OKC Thunder</t>
         </is>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Rob Dillingham</t>
+          <t>Alex Ducas</t>
         </is>
       </c>
       <c r="E20">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="G20">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>516</v>
+        <v>125</v>
       </c>
       <c r="J20">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="K20">
-        <v>14.7</v>
+        <v>8.6</v>
       </c>
       <c r="L20">
         <v>0.6</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="N20">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="O20">
-        <v>6.8</v>
+        <v>1.4</v>
       </c>
       <c r="P20">
         <v>1.4</v>
       </c>
       <c r="Q20">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="S20">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="T20">
-        <v>15.3</v>
+        <v>10.4</v>
       </c>
       <c r="U20">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="V20">
-        <v>1.8</v>
+        <v>-6.5</v>
       </c>
       <c r="W20">
-        <v>14.7</v>
+        <v>14.4</v>
       </c>
       <c r="X20">
-        <v>3.45</v>
+        <v>8.15</v>
       </c>
       <c r="Y20">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z20">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -2195,92 +2195,92 @@
         </is>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Jaylen Clark</t>
+          <t>Rudy Gobert</t>
         </is>
       </c>
       <c r="E21">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G21">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="I21">
-        <v>522</v>
+        <v>2388</v>
       </c>
       <c r="J21">
-        <v>3.9</v>
+        <v>5.1</v>
       </c>
       <c r="K21">
-        <v>8.300000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="L21">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="M21">
-        <v>2.6</v>
+        <v>4.1</v>
       </c>
       <c r="N21">
-        <v>3.7</v>
+        <v>11.8</v>
       </c>
       <c r="O21">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="P21">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="Q21">
-        <v>0.1</v>
+        <v>1.6</v>
       </c>
       <c r="R21">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="S21">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="T21">
-        <v>11.2</v>
+        <v>13.1</v>
       </c>
       <c r="U21">
-        <v>12</v>
+        <v>18.3</v>
       </c>
       <c r="V21">
-        <v>4.6</v>
+        <v>6.7</v>
       </c>
       <c r="W21">
-        <v>13.6</v>
+        <v>22.4</v>
       </c>
       <c r="X21">
-        <v>6.05</v>
+        <v>15.05</v>
       </c>
       <c r="Y21">
-        <v>41.5</v>
+        <v>14</v>
       </c>
       <c r="Z21">
-        <v>41.5</v>
+        <v>21.5</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>OKC Thunder</t>
+          <t>Indiana Pacers</t>
         </is>
       </c>
       <c r="C22">
@@ -2288,11 +2288,11 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Dillon Jones</t>
+          <t>Bennedict Mathurin</t>
         </is>
       </c>
       <c r="E22">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -2300,72 +2300,72 @@
         </is>
       </c>
       <c r="G22">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="I22">
-        <v>551</v>
+        <v>2149</v>
       </c>
       <c r="J22">
-        <v>3.3</v>
+        <v>6.6</v>
       </c>
       <c r="K22">
-        <v>8.699999999999999</v>
+        <v>14.3</v>
       </c>
       <c r="L22">
-        <v>1.1</v>
+        <v>4.6</v>
       </c>
       <c r="M22">
-        <v>1.8</v>
+        <v>5.6</v>
       </c>
       <c r="N22">
-        <v>7.9</v>
+        <v>6.4</v>
       </c>
       <c r="O22">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="P22">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Q22">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="R22">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="S22">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="T22">
-        <v>8.800000000000001</v>
+        <v>19.4</v>
       </c>
       <c r="U22">
-        <v>8.1</v>
+        <v>13.6</v>
       </c>
       <c r="V22">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="W22">
-        <v>13.6</v>
+        <v>17.9</v>
       </c>
       <c r="X22">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="Y22">
-        <v>56</v>
+        <v>34.5</v>
       </c>
       <c r="Z22">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2373,88 +2373,88 @@
         </is>
       </c>
       <c r="C23">
+        <v>17</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Jalen Williams</t>
+        </is>
+      </c>
+      <c r="E23">
+        <v>23</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="G23">
+        <v>69</v>
+      </c>
+      <c r="H23">
+        <v>69</v>
+      </c>
+      <c r="I23">
+        <v>2237</v>
+      </c>
+      <c r="J23">
+        <v>9.1</v>
+      </c>
+      <c r="K23">
+        <v>18.8</v>
+      </c>
+      <c r="L23">
+        <v>3.8</v>
+      </c>
+      <c r="M23">
+        <v>4.8</v>
+      </c>
+      <c r="N23">
+        <v>5.9</v>
+      </c>
+      <c r="O23">
+        <v>5.7</v>
+      </c>
+      <c r="P23">
+        <v>1.8</v>
+      </c>
+      <c r="Q23">
+        <v>0.7</v>
+      </c>
+      <c r="R23">
+        <v>2.4</v>
+      </c>
+      <c r="S23">
+        <v>2.5</v>
+      </c>
+      <c r="T23">
+        <v>24</v>
+      </c>
+      <c r="U23">
+        <v>20.3</v>
+      </c>
+      <c r="V23">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="W23">
+        <v>24.3</v>
+      </c>
+      <c r="X23">
+        <v>10.05</v>
+      </c>
+      <c r="Y23">
+        <v>7</v>
+      </c>
+      <c r="Z23">
         <v>13</v>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Ajay Mitchell</t>
-        </is>
-      </c>
-      <c r="E23">
-        <v>22</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="G23">
-        <v>36</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>597</v>
-      </c>
-      <c r="J23">
-        <v>5.5</v>
-      </c>
-      <c r="K23">
-        <v>11.1</v>
-      </c>
-      <c r="L23">
-        <v>1.7</v>
-      </c>
-      <c r="M23">
-        <v>2.1</v>
-      </c>
-      <c r="N23">
-        <v>4.1</v>
-      </c>
-      <c r="O23">
-        <v>3.9</v>
-      </c>
-      <c r="P23">
-        <v>1.5</v>
-      </c>
-      <c r="Q23">
-        <v>0.2</v>
-      </c>
-      <c r="R23">
-        <v>1.7</v>
-      </c>
-      <c r="S23">
-        <v>4.1</v>
-      </c>
-      <c r="T23">
-        <v>14.1</v>
-      </c>
-      <c r="U23">
-        <v>12</v>
-      </c>
-      <c r="V23">
-        <v>10</v>
-      </c>
-      <c r="W23">
-        <v>15.9</v>
-      </c>
-      <c r="X23">
-        <v>5.85</v>
-      </c>
-      <c r="Y23">
-        <v>41.5</v>
-      </c>
-      <c r="Z23">
-        <v>41.5</v>
-      </c>
       <c r="AA23">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2462,11 +2462,11 @@
         </is>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Landry Shamet</t>
+          <t>OG Anunoby</t>
         </is>
       </c>
       <c r="E24">
@@ -2474,88 +2474,88 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="G24">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="I24">
-        <v>762</v>
+        <v>2706</v>
       </c>
       <c r="J24">
+        <v>6.5</v>
+      </c>
+      <c r="K24">
+        <v>13.7</v>
+      </c>
+      <c r="L24">
+        <v>2.4</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="N24">
+        <v>4.8</v>
+      </c>
+      <c r="O24">
+        <v>2.2</v>
+      </c>
+      <c r="P24">
+        <v>1.5</v>
+      </c>
+      <c r="Q24">
+        <v>0.9</v>
+      </c>
+      <c r="R24">
+        <v>1.4</v>
+      </c>
+      <c r="S24">
+        <v>2.3</v>
+      </c>
+      <c r="T24">
+        <v>17.7</v>
+      </c>
+      <c r="U24">
+        <v>15.4</v>
+      </c>
+      <c r="V24">
+        <v>5.2</v>
+      </c>
+      <c r="W24">
+        <v>17</v>
+      </c>
+      <c r="X24">
+        <v>7.8</v>
+      </c>
+      <c r="Y24">
+        <v>26</v>
+      </c>
+      <c r="Z24">
+        <v>31</v>
+      </c>
+      <c r="AA24">
         <v>5</v>
-      </c>
-      <c r="K24">
-        <v>10.9</v>
-      </c>
-      <c r="L24">
-        <v>0.6</v>
-      </c>
-      <c r="M24">
-        <v>0.9</v>
-      </c>
-      <c r="N24">
-        <v>2.9</v>
-      </c>
-      <c r="O24">
-        <v>1.3</v>
-      </c>
-      <c r="P24">
-        <v>1.1</v>
-      </c>
-      <c r="Q24">
-        <v>0.1</v>
-      </c>
-      <c r="R24">
-        <v>1</v>
-      </c>
-      <c r="S24">
-        <v>2.5</v>
-      </c>
-      <c r="T24">
-        <v>13.5</v>
-      </c>
-      <c r="U24">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="V24">
-        <v>6.4</v>
-      </c>
-      <c r="W24">
-        <v>11.6</v>
-      </c>
-      <c r="X24">
-        <v>4.6</v>
-      </c>
-      <c r="Y24">
-        <v>54</v>
-      </c>
-      <c r="Z24">
-        <v>54</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>OKC Thunder</t>
+          <t>NY Knicks</t>
         </is>
       </c>
       <c r="C25">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Jaylin Williams</t>
+          <t>Ariel Hukporti</t>
         </is>
       </c>
       <c r="E25">
@@ -2563,254 +2563,254 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G25">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="H25">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>784</v>
+        <v>217</v>
       </c>
       <c r="J25">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="K25">
-        <v>10.1</v>
+        <v>5.1</v>
       </c>
       <c r="L25">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="N25">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="O25">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="P25">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="Q25">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="R25">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="S25">
-        <v>3.6</v>
+        <v>5.3</v>
       </c>
       <c r="T25">
-        <v>12.8</v>
+        <v>8</v>
       </c>
       <c r="U25">
-        <v>16.4</v>
+        <v>7.6</v>
       </c>
       <c r="V25">
-        <v>18.8</v>
+        <v>-13.4</v>
       </c>
       <c r="W25">
-        <v>23.8</v>
+        <v>12.2</v>
       </c>
       <c r="X25">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="Y25">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="Z25">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>70</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>OKC Thunder</t>
+        </is>
+      </c>
+      <c r="C26">
+        <v>7</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Shai Gilgeous-Alexander</t>
+        </is>
+      </c>
+      <c r="E26">
+        <v>26</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="G26">
+        <v>76</v>
+      </c>
+      <c r="H26">
+        <v>76</v>
+      </c>
+      <c r="I26">
+        <v>2598</v>
+      </c>
+      <c r="J26">
+        <v>11.9</v>
+      </c>
+      <c r="K26">
+        <v>22.9</v>
+      </c>
+      <c r="L26">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="M26">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="N26">
+        <v>5.3</v>
+      </c>
+      <c r="O26">
+        <v>6.7</v>
+      </c>
+      <c r="P26">
+        <v>1.8</v>
+      </c>
+      <c r="Q26">
+        <v>1.1</v>
+      </c>
+      <c r="R26">
+        <v>2.5</v>
+      </c>
+      <c r="S26">
+        <v>2.3</v>
+      </c>
+      <c r="T26">
+        <v>34.4</v>
+      </c>
+      <c r="U26">
+        <v>30.7</v>
+      </c>
+      <c r="V26">
+        <v>16.9</v>
+      </c>
+      <c r="W26">
+        <v>33.7</v>
+      </c>
+      <c r="X26">
+        <v>14.2</v>
+      </c>
+      <c r="Y26">
+        <v>1</v>
+      </c>
+      <c r="Z26">
         <v>3</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Indiana Pacers</t>
-        </is>
-      </c>
-      <c r="C26">
-        <v>3</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Thomas Bryant</t>
-        </is>
-      </c>
-      <c r="E26">
-        <v>27</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G26">
-        <v>56</v>
-      </c>
-      <c r="H26">
-        <v>8</v>
-      </c>
-      <c r="I26">
-        <v>848</v>
-      </c>
-      <c r="J26">
-        <v>6.4</v>
-      </c>
-      <c r="K26">
-        <v>12.4</v>
-      </c>
-      <c r="L26">
-        <v>1.9</v>
-      </c>
-      <c r="M26">
-        <v>2.3</v>
-      </c>
-      <c r="N26">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="O26">
-        <v>2.1</v>
-      </c>
-      <c r="P26">
-        <v>1.1</v>
-      </c>
-      <c r="Q26">
-        <v>1.4</v>
-      </c>
-      <c r="R26">
-        <v>1.2</v>
-      </c>
-      <c r="S26">
-        <v>2.8</v>
-      </c>
-      <c r="T26">
-        <v>16.5</v>
-      </c>
-      <c r="U26">
-        <v>17.4</v>
-      </c>
-      <c r="V26">
-        <v>-2.6</v>
-      </c>
-      <c r="W26">
-        <v>21.4</v>
-      </c>
-      <c r="X26">
-        <v>12.5</v>
-      </c>
-      <c r="Y26">
-        <v>17.5</v>
-      </c>
-      <c r="Z26">
-        <v>17.5</v>
-      </c>
       <c r="AA26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>OKC Thunder</t>
+          <t>NY Knicks</t>
         </is>
       </c>
       <c r="C27">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Chet Holmgren</t>
+          <t>Pacome Dadiet</t>
         </is>
       </c>
       <c r="E27">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="G27">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="H27">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>877</v>
+        <v>111</v>
       </c>
       <c r="J27">
-        <v>6.9</v>
+        <v>3.2</v>
       </c>
       <c r="K27">
-        <v>14</v>
+        <v>10.1</v>
       </c>
       <c r="L27">
+        <v>1.3</v>
+      </c>
+      <c r="M27">
+        <v>1.9</v>
+      </c>
+      <c r="N27">
+        <v>5.8</v>
+      </c>
+      <c r="O27">
+        <v>1.6</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>0.6</v>
+      </c>
+      <c r="R27">
+        <v>1.3</v>
+      </c>
+      <c r="S27">
+        <v>2.3</v>
+      </c>
+      <c r="T27">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="U27">
+        <v>6.3</v>
+      </c>
+      <c r="V27">
+        <v>-10.2</v>
+      </c>
+      <c r="W27">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="X27">
         <v>4.1</v>
       </c>
-      <c r="M27">
-        <v>5.5</v>
-      </c>
-      <c r="N27">
-        <v>10.5</v>
-      </c>
-      <c r="O27">
-        <v>2.6</v>
-      </c>
-      <c r="P27">
-        <v>0.9</v>
-      </c>
-      <c r="Q27">
-        <v>2.9</v>
-      </c>
-      <c r="R27">
-        <v>2.3</v>
-      </c>
-      <c r="S27">
-        <v>3</v>
-      </c>
-      <c r="T27">
-        <v>19.7</v>
-      </c>
-      <c r="U27">
-        <v>19.2</v>
-      </c>
-      <c r="V27">
-        <v>16.3</v>
-      </c>
-      <c r="W27">
-        <v>22.9</v>
-      </c>
-      <c r="X27">
-        <v>13.3</v>
-      </c>
       <c r="Y27">
-        <v>9.5</v>
+        <v>59</v>
       </c>
       <c r="Z27">
-        <v>9.5</v>
+        <v>60</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2818,169 +2818,169 @@
         </is>
       </c>
       <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Branden Carlson</t>
+        </is>
+      </c>
+      <c r="E28">
+        <v>25</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G28">
+        <v>32</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>246</v>
+      </c>
+      <c r="J28">
+        <v>6.3</v>
+      </c>
+      <c r="K28">
+        <v>14.2</v>
+      </c>
+      <c r="L28">
         <v>2</v>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Alex Caruso</t>
-        </is>
-      </c>
-      <c r="E28">
-        <v>30</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="G28">
-        <v>54</v>
-      </c>
-      <c r="H28">
-        <v>3</v>
-      </c>
-      <c r="I28">
-        <v>1041</v>
-      </c>
-      <c r="J28">
-        <v>4.8</v>
-      </c>
-      <c r="K28">
-        <v>10.9</v>
-      </c>
-      <c r="L28">
-        <v>1.5</v>
-      </c>
       <c r="M28">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="N28">
-        <v>5.5</v>
+        <v>7.9</v>
       </c>
       <c r="O28">
-        <v>4.7</v>
+        <v>2</v>
       </c>
       <c r="P28">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="Q28">
+        <v>3.1</v>
+      </c>
+      <c r="R28">
         <v>1</v>
       </c>
-      <c r="R28">
-        <v>1.3</v>
-      </c>
       <c r="S28">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="T28">
-        <v>13.2</v>
+        <v>17.9</v>
       </c>
       <c r="U28">
-        <v>15.9</v>
+        <v>17.6</v>
       </c>
       <c r="V28">
-        <v>15.2</v>
+        <v>7.8</v>
       </c>
       <c r="W28">
-        <v>18.7</v>
+        <v>19</v>
       </c>
       <c r="X28">
-        <v>9.699999999999999</v>
+        <v>10.95</v>
       </c>
       <c r="Y28">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="Z28">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NY Knicks</t>
+          <t>Indiana Pacers</t>
         </is>
       </c>
       <c r="C29">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Cameron Payne</t>
+          <t>Enrique Freeman</t>
         </is>
       </c>
       <c r="E29">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="G29">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>1090</v>
+        <v>181</v>
       </c>
       <c r="J29">
-        <v>5.9</v>
+        <v>3.2</v>
       </c>
       <c r="K29">
-        <v>14.7</v>
+        <v>7.4</v>
       </c>
       <c r="L29">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="M29">
+        <v>3.8</v>
+      </c>
+      <c r="N29">
+        <v>6</v>
+      </c>
+      <c r="O29">
         <v>1.8</v>
       </c>
-      <c r="N29">
-        <v>3.4</v>
-      </c>
-      <c r="O29">
-        <v>6.7</v>
-      </c>
       <c r="P29">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="Q29">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="R29">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="S29">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="T29">
-        <v>16.5</v>
+        <v>9.1</v>
       </c>
       <c r="U29">
-        <v>13.8</v>
+        <v>7.4</v>
       </c>
       <c r="V29">
-        <v>9.5</v>
+        <v>-6</v>
       </c>
       <c r="W29">
-        <v>17.2</v>
+        <v>10.9</v>
       </c>
       <c r="X29">
-        <v>5.65</v>
+        <v>4.3</v>
       </c>
       <c r="Y29">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="Z29">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="AA29">
         <v>0</v>
@@ -2988,185 +2988,185 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Indiana Pacers</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
       <c r="C30">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Aaron Nesmith</t>
+          <t>Jaden McDaniels</t>
         </is>
       </c>
       <c r="E30">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="G30">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="H30">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="I30">
-        <v>1123</v>
+        <v>2614</v>
       </c>
       <c r="J30">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="K30">
-        <v>12.1</v>
+        <v>11.5</v>
       </c>
       <c r="L30">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="M30">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="N30">
-        <v>5.7</v>
+        <v>6.5</v>
       </c>
       <c r="O30">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="P30">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="Q30">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R30">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="S30">
+        <v>3.1</v>
+      </c>
+      <c r="T30">
+        <v>13.8</v>
+      </c>
+      <c r="U30">
+        <v>13.3</v>
+      </c>
+      <c r="V30">
         <v>3.7</v>
       </c>
-      <c r="T30">
-        <v>17.3</v>
-      </c>
-      <c r="U30">
-        <v>14.6</v>
-      </c>
-      <c r="V30">
-        <v>9.1</v>
-      </c>
       <c r="W30">
-        <v>18.4</v>
+        <v>16.3</v>
       </c>
       <c r="X30">
-        <v>8.75</v>
+        <v>8.15</v>
       </c>
       <c r="Y30">
-        <v>28</v>
+        <v>36.5</v>
       </c>
       <c r="Z30">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AA30">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>OKC Thunder</t>
+          <t>Indiana Pacers</t>
         </is>
       </c>
       <c r="C31">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Kenrich Williams</t>
+          <t>Tony Bradley</t>
         </is>
       </c>
       <c r="E31">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G31">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="H31">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>1132</v>
+        <v>113</v>
       </c>
       <c r="J31">
-        <v>5.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K31">
-        <v>11.3</v>
+        <v>14.3</v>
       </c>
       <c r="L31">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="M31">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="N31">
-        <v>7.7</v>
+        <v>13.4</v>
       </c>
       <c r="O31">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="P31">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="Q31">
-        <v>0.3</v>
+        <v>2.9</v>
       </c>
       <c r="R31">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="S31">
         <v>3.5</v>
       </c>
       <c r="T31">
-        <v>13.9</v>
+        <v>19.4</v>
       </c>
       <c r="U31">
-        <v>13.7</v>
+        <v>23.2</v>
       </c>
       <c r="V31">
-        <v>15.1</v>
+        <v>18.1</v>
       </c>
       <c r="W31">
-        <v>18.7</v>
+        <v>27.3</v>
       </c>
       <c r="X31">
-        <v>9.85</v>
+        <v>17.2</v>
       </c>
       <c r="Y31">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="Z31">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="AA31">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -3174,549 +3174,549 @@
         </is>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Precious Achiuwa</t>
+          <t>Tyler Kolek</t>
         </is>
       </c>
       <c r="E32">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="G32">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>296</v>
+      </c>
+      <c r="J32">
+        <v>3.3</v>
+      </c>
+      <c r="K32">
         <v>10</v>
       </c>
-      <c r="I32">
-        <v>1170</v>
-      </c>
-      <c r="J32">
-        <v>5</v>
-      </c>
-      <c r="K32">
-        <v>10.1</v>
-      </c>
       <c r="L32">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="M32">
         <v>2.1</v>
       </c>
       <c r="N32">
-        <v>9.800000000000001</v>
+        <v>3.3</v>
       </c>
       <c r="O32">
-        <v>1.7</v>
+        <v>8.5</v>
       </c>
       <c r="P32">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q32">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="R32">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="S32">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="T32">
-        <v>11.7</v>
+        <v>9.9</v>
       </c>
       <c r="U32">
-        <v>13.6</v>
+        <v>10.3</v>
       </c>
       <c r="V32">
-        <v>-0.9</v>
+        <v>0.4</v>
       </c>
       <c r="W32">
-        <v>17.3</v>
+        <v>13.8</v>
       </c>
       <c r="X32">
-        <v>10.6</v>
+        <v>4.35</v>
       </c>
       <c r="Y32">
-        <v>34.5</v>
+        <v>49</v>
       </c>
       <c r="Z32">
-        <v>34.5</v>
+        <v>48</v>
       </c>
       <c r="AA32">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Indiana Pacers</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
       <c r="C33">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Jarace Walker</t>
+          <t>Terrence Shannon Jr.</t>
         </is>
       </c>
       <c r="E33">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="G33">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>339</v>
+      </c>
+      <c r="J33">
+        <v>5.8</v>
+      </c>
+      <c r="K33">
+        <v>12.1</v>
+      </c>
+      <c r="L33">
+        <v>1.8</v>
+      </c>
+      <c r="M33">
+        <v>2.2</v>
+      </c>
+      <c r="N33">
         <v>5</v>
       </c>
-      <c r="I33">
-        <v>1187</v>
-      </c>
-      <c r="J33">
-        <v>5.2</v>
-      </c>
-      <c r="K33">
-        <v>10.9</v>
-      </c>
-      <c r="L33">
-        <v>1.4</v>
-      </c>
-      <c r="M33">
-        <v>2.1</v>
-      </c>
-      <c r="N33">
-        <v>6.9</v>
-      </c>
       <c r="O33">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P33">
+        <v>0.7</v>
+      </c>
+      <c r="Q33">
+        <v>0.5</v>
+      </c>
+      <c r="R33">
         <v>1.6</v>
       </c>
-      <c r="Q33">
-        <v>0.8</v>
-      </c>
-      <c r="R33">
-        <v>2.4</v>
-      </c>
       <c r="S33">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="T33">
-        <v>14</v>
+        <v>14.7</v>
       </c>
       <c r="U33">
         <v>11.9</v>
       </c>
       <c r="V33">
-        <v>-5.4</v>
+        <v>2.6</v>
       </c>
       <c r="W33">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="X33">
-        <v>8.449999999999999</v>
+        <v>6.1</v>
       </c>
       <c r="Y33">
         <v>43.5</v>
       </c>
       <c r="Z33">
-        <v>43.5</v>
+        <v>42.5</v>
       </c>
       <c r="AA33">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Indiana Pacers</t>
+          <t>OKC Thunder</t>
         </is>
       </c>
       <c r="C34">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Ben Sheppard</t>
+          <t>Isaiah Hartenstein</t>
         </is>
       </c>
       <c r="E34">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G34">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H34">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="I34">
-        <v>1228</v>
+        <v>1590</v>
       </c>
       <c r="J34">
-        <v>3.5</v>
+        <v>6.3</v>
       </c>
       <c r="K34">
-        <v>8.4</v>
+        <v>10.9</v>
       </c>
       <c r="L34">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="M34">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="N34">
-        <v>5.2</v>
+        <v>13.8</v>
       </c>
       <c r="O34">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="P34">
         <v>1.1</v>
       </c>
       <c r="Q34">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="R34">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="S34">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="T34">
-        <v>9.699999999999999</v>
+        <v>14.4</v>
       </c>
       <c r="U34">
-        <v>9.199999999999999</v>
+        <v>18.9</v>
       </c>
       <c r="V34">
-        <v>-1.3</v>
+        <v>12.6</v>
       </c>
       <c r="W34">
-        <v>12.9</v>
+        <v>26.7</v>
       </c>
       <c r="X34">
-        <v>6.2</v>
+        <v>16.15</v>
       </c>
       <c r="Y34">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="Z34">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="AA34">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Indiana Pacers</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
       <c r="C35">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>T.J. McConnell</t>
+          <t>Donte DiVincenzo</t>
         </is>
       </c>
       <c r="E35">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="G35">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I35">
-        <v>1415</v>
+        <v>1606</v>
       </c>
       <c r="J35">
-        <v>8.199999999999999</v>
+        <v>5.6</v>
       </c>
       <c r="K35">
-        <v>15.9</v>
+        <v>13.3</v>
       </c>
       <c r="L35">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="M35">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="N35">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="O35">
-        <v>8.9</v>
+        <v>5</v>
       </c>
       <c r="P35">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="Q35">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="R35">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="S35">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="T35">
-        <v>18.3</v>
+        <v>16.2</v>
       </c>
       <c r="U35">
-        <v>18.4</v>
+        <v>14.1</v>
       </c>
       <c r="V35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W35">
-        <v>23.2</v>
+        <v>17.7</v>
       </c>
       <c r="X35">
-        <v>9.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="Y35">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="Z35">
-        <v>13</v>
+        <v>27.5</v>
       </c>
       <c r="AA35">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Indiana Pacers</t>
+          <t>NY Knicks</t>
         </is>
       </c>
       <c r="C36">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Obi Toppin</t>
+          <t>Mikal Bridges</t>
         </is>
       </c>
       <c r="E36">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="G36">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H36">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="I36">
-        <v>1545</v>
+        <v>3036</v>
       </c>
       <c r="J36">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="K36">
         <v>14</v>
       </c>
       <c r="L36">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="M36">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="N36">
-        <v>7.4</v>
+        <v>3.1</v>
       </c>
       <c r="O36">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P36">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="Q36">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="R36">
         <v>1.6</v>
       </c>
       <c r="S36">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="T36">
-        <v>19.4</v>
+        <v>17.1</v>
       </c>
       <c r="U36">
-        <v>17.4</v>
+        <v>14</v>
       </c>
       <c r="V36">
-        <v>-2.6</v>
+        <v>5.6</v>
       </c>
       <c r="W36">
-        <v>22.1</v>
+        <v>15.8</v>
       </c>
       <c r="X36">
-        <v>11.55</v>
+        <v>6.1</v>
       </c>
       <c r="Y36">
-        <v>17.5</v>
+        <v>30.5</v>
       </c>
       <c r="Z36">
-        <v>17.5</v>
+        <v>29</v>
       </c>
       <c r="AA36">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>OKC Thunder</t>
+          <t>Indiana Pacers</t>
         </is>
       </c>
       <c r="C37">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Isaiah Hartenstein</t>
+          <t>Ben Sheppard</t>
         </is>
       </c>
       <c r="E37">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="G37">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="H37">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="I37">
-        <v>1590</v>
+        <v>1228</v>
       </c>
       <c r="J37">
-        <v>6.3</v>
+        <v>3.5</v>
       </c>
       <c r="K37">
-        <v>10.9</v>
+        <v>8.4</v>
       </c>
       <c r="L37">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="M37">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="N37">
-        <v>13.8</v>
+        <v>5.2</v>
       </c>
       <c r="O37">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="P37">
         <v>1.1</v>
       </c>
       <c r="Q37">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="R37">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="S37">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="T37">
-        <v>14.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="U37">
-        <v>18.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="V37">
-        <v>12.6</v>
+        <v>-1.3</v>
       </c>
       <c r="W37">
-        <v>26.7</v>
+        <v>12.9</v>
       </c>
       <c r="X37">
-        <v>16.15</v>
+        <v>6.2</v>
       </c>
       <c r="Y37">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="Z37">
-        <v>11</v>
+        <v>52.5</v>
       </c>
       <c r="AA37">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NY Knicks</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
       <c r="C38">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Miles McBride</t>
+          <t>Rob Dillingham</t>
         </is>
       </c>
       <c r="E38">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -3724,339 +3724,339 @@
         </is>
       </c>
       <c r="G38">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="H38">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>1593</v>
+        <v>516</v>
       </c>
       <c r="J38">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="K38">
-        <v>12.4</v>
+        <v>14.7</v>
       </c>
       <c r="L38">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>3.5</v>
+      </c>
+      <c r="O38">
+        <v>6.8</v>
+      </c>
+      <c r="P38">
         <v>1.4</v>
       </c>
-      <c r="N38">
-        <v>3.6</v>
-      </c>
-      <c r="O38">
-        <v>4.2</v>
-      </c>
-      <c r="P38">
-        <v>1.5</v>
-      </c>
       <c r="Q38">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="R38">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="S38">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="T38">
-        <v>13.8</v>
+        <v>15.3</v>
       </c>
       <c r="U38">
-        <v>12.6</v>
+        <v>10.2</v>
       </c>
       <c r="V38">
-        <v>7.5</v>
+        <v>1.8</v>
       </c>
       <c r="W38">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="X38">
-        <v>6</v>
+        <v>3.45</v>
       </c>
       <c r="Y38">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="Z38">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AA38">
-        <v>0</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>OKC Thunder</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
       <c r="C39">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Isaiah Joe</t>
+          <t>Joe Ingles</t>
         </is>
       </c>
       <c r="E39">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="G39">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="H39">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>1604</v>
+        <v>114</v>
       </c>
       <c r="J39">
-        <v>5.8</v>
+        <v>1.9</v>
       </c>
       <c r="K39">
-        <v>13.2</v>
+        <v>7.3</v>
       </c>
       <c r="L39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="O39">
-        <v>2.7</v>
+        <v>7.3</v>
       </c>
       <c r="P39">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="Q39">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="S39">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="T39">
-        <v>17</v>
+        <v>4.7</v>
       </c>
       <c r="U39">
-        <v>14</v>
+        <v>2.4</v>
       </c>
       <c r="V39">
-        <v>15.5</v>
+        <v>-5</v>
       </c>
       <c r="W39">
-        <v>16.6</v>
+        <v>7.9</v>
       </c>
       <c r="X39">
-        <v>7.95</v>
+        <v>0.45</v>
       </c>
       <c r="Y39">
-        <v>30.5</v>
+        <v>61</v>
       </c>
       <c r="Z39">
-        <v>30.5</v>
+        <v>56</v>
       </c>
       <c r="AA39">
-        <v>0</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>OKC Thunder</t>
         </is>
       </c>
       <c r="C40">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Donte DiVincenzo</t>
+          <t>Chet Holmgren</t>
         </is>
       </c>
       <c r="E40">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G40">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="H40">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="I40">
-        <v>1606</v>
+        <v>877</v>
       </c>
       <c r="J40">
-        <v>5.6</v>
+        <v>6.9</v>
       </c>
       <c r="K40">
+        <v>14</v>
+      </c>
+      <c r="L40">
+        <v>4.1</v>
+      </c>
+      <c r="M40">
+        <v>5.5</v>
+      </c>
+      <c r="N40">
+        <v>10.5</v>
+      </c>
+      <c r="O40">
+        <v>2.6</v>
+      </c>
+      <c r="P40">
+        <v>0.9</v>
+      </c>
+      <c r="Q40">
+        <v>2.9</v>
+      </c>
+      <c r="R40">
+        <v>2.3</v>
+      </c>
+      <c r="S40">
+        <v>3</v>
+      </c>
+      <c r="T40">
+        <v>19.7</v>
+      </c>
+      <c r="U40">
+        <v>19.2</v>
+      </c>
+      <c r="V40">
+        <v>16.3</v>
+      </c>
+      <c r="W40">
+        <v>22.9</v>
+      </c>
+      <c r="X40">
         <v>13.3</v>
       </c>
-      <c r="L40">
-        <v>1.1</v>
-      </c>
-      <c r="M40">
-        <v>1.4</v>
-      </c>
-      <c r="N40">
-        <v>5.1</v>
-      </c>
-      <c r="O40">
-        <v>5</v>
-      </c>
-      <c r="P40">
-        <v>1.6</v>
-      </c>
-      <c r="Q40">
-        <v>0.4</v>
-      </c>
-      <c r="R40">
-        <v>2.2</v>
-      </c>
-      <c r="S40">
-        <v>2.6</v>
-      </c>
-      <c r="T40">
-        <v>16.2</v>
-      </c>
-      <c r="U40">
-        <v>14.1</v>
-      </c>
-      <c r="V40">
-        <v>6</v>
-      </c>
-      <c r="W40">
-        <v>17.7</v>
-      </c>
-      <c r="X40">
-        <v>8.1</v>
-      </c>
       <c r="Y40">
-        <v>29</v>
+        <v>9.5</v>
       </c>
       <c r="Z40">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="AA40">
-        <v>0</v>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>OKC Thunder</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
       <c r="C41">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Aaron Wiggins</t>
+          <t>Naz Reid</t>
         </is>
       </c>
       <c r="E41">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G41">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H41">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I41">
-        <v>1744</v>
+        <v>2200</v>
       </c>
       <c r="J41">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="K41">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="L41">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="M41">
+        <v>2.3</v>
+      </c>
+      <c r="N41">
+        <v>7.9</v>
+      </c>
+      <c r="O41">
+        <v>3</v>
+      </c>
+      <c r="P41">
+        <v>0.9</v>
+      </c>
+      <c r="Q41">
+        <v>1.2</v>
+      </c>
+      <c r="R41">
         <v>1.8</v>
       </c>
-      <c r="N41">
-        <v>6.1</v>
-      </c>
-      <c r="O41">
-        <v>2.8</v>
-      </c>
-      <c r="P41">
-        <v>1.2</v>
-      </c>
-      <c r="Q41">
-        <v>0.4</v>
-      </c>
-      <c r="R41">
-        <v>1.4</v>
-      </c>
       <c r="S41">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="T41">
-        <v>18.9</v>
+        <v>18.6</v>
       </c>
       <c r="U41">
-        <v>16.1</v>
+        <v>15.8</v>
       </c>
       <c r="V41">
-        <v>14.1</v>
+        <v>7.1</v>
       </c>
       <c r="W41">
-        <v>19.6</v>
+        <v>20</v>
       </c>
       <c r="X41">
-        <v>9.449999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="Y41">
-        <v>21.5</v>
+        <v>24</v>
       </c>
       <c r="Z41">
-        <v>21.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA41">
-        <v>0</v>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -4064,104 +4064,104 @@
         </is>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Mike Conley</t>
+          <t>Jaylen Clark</t>
         </is>
       </c>
       <c r="E42">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="G42">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="H42">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="I42">
-        <v>1756</v>
+        <v>522</v>
       </c>
       <c r="J42">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K42">
-        <v>9.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="L42">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="M42">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="N42">
         <v>3.7</v>
       </c>
       <c r="O42">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="P42">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q42">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="R42">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="S42">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="T42">
-        <v>11.9</v>
+        <v>11.2</v>
       </c>
       <c r="U42">
-        <v>13.3</v>
+        <v>12</v>
       </c>
       <c r="V42">
-        <v>6.2</v>
+        <v>4.6</v>
       </c>
       <c r="W42">
-        <v>16.3</v>
+        <v>13.6</v>
       </c>
       <c r="X42">
-        <v>7.45</v>
+        <v>6.05</v>
       </c>
       <c r="Y42">
-        <v>36.5</v>
+        <v>41.5</v>
       </c>
       <c r="Z42">
-        <v>36.5</v>
+        <v>33</v>
       </c>
       <c r="AA42">
-        <v>0</v>
+        <v>-8.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>OKC Thunder</t>
+          <t>Indiana Pacers</t>
         </is>
       </c>
       <c r="C43">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Cason Wallace</t>
+          <t>Johnny Furphy</t>
         </is>
       </c>
       <c r="E43">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -4169,250 +4169,250 @@
         </is>
       </c>
       <c r="G43">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="H43">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>1876</v>
+        <v>379</v>
       </c>
       <c r="J43">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="K43">
-        <v>9.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L43">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="M43">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="N43">
-        <v>4.4</v>
+        <v>6.7</v>
       </c>
       <c r="O43">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="P43">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="Q43">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="R43">
         <v>1.1</v>
       </c>
       <c r="S43">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="T43">
-        <v>10.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="U43">
-        <v>12.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="V43">
-        <v>10.6</v>
+        <v>2.6</v>
       </c>
       <c r="W43">
-        <v>14.8</v>
+        <v>13.1</v>
       </c>
       <c r="X43">
-        <v>7.35</v>
+        <v>6.8</v>
       </c>
       <c r="Y43">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="Z43">
-        <v>40</v>
+        <v>42.5</v>
       </c>
       <c r="AA43">
-        <v>0</v>
+        <v>-10.5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Indiana Pacers</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
       <c r="C44">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Andrew Nembhard</t>
+          <t>Mike Conley</t>
         </is>
       </c>
       <c r="E44">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="G44">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H44">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I44">
-        <v>1881</v>
+        <v>1756</v>
       </c>
       <c r="J44">
-        <v>4.7</v>
+        <v>3.8</v>
       </c>
       <c r="K44">
-        <v>10.3</v>
+        <v>9.6</v>
       </c>
       <c r="L44">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="M44">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="N44">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="O44">
+        <v>6.5</v>
+      </c>
+      <c r="P44">
+        <v>1.6</v>
+      </c>
+      <c r="Q44">
+        <v>0.3</v>
+      </c>
+      <c r="R44">
+        <v>1.5</v>
+      </c>
+      <c r="S44">
+        <v>2.3</v>
+      </c>
+      <c r="T44">
+        <v>11.9</v>
+      </c>
+      <c r="U44">
+        <v>13.3</v>
+      </c>
+      <c r="V44">
         <v>6.2</v>
       </c>
-      <c r="P44">
-        <v>1.5</v>
-      </c>
-      <c r="Q44">
-        <v>0.2</v>
-      </c>
-      <c r="R44">
-        <v>2.1</v>
-      </c>
-      <c r="S44">
-        <v>2.9</v>
-      </c>
-      <c r="T44">
-        <v>12.5</v>
-      </c>
-      <c r="U44">
-        <v>11.7</v>
-      </c>
-      <c r="V44">
-        <v>5.3</v>
-      </c>
       <c r="W44">
-        <v>16.1</v>
+        <v>16.3</v>
       </c>
       <c r="X44">
-        <v>6.15</v>
+        <v>7.45</v>
       </c>
       <c r="Y44">
-        <v>45</v>
+        <v>36.5</v>
       </c>
       <c r="Z44">
-        <v>45</v>
+        <v>25.5</v>
       </c>
       <c r="AA44">
-        <v>0</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>Indiana Pacers</t>
         </is>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Nickeil Alexander-Walker</t>
+          <t>Aaron Nesmith</t>
         </is>
       </c>
       <c r="E45">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="G45">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="H45">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="I45">
-        <v>2073</v>
+        <v>1123</v>
       </c>
       <c r="J45">
-        <v>4.7</v>
+        <v>6.2</v>
       </c>
       <c r="K45">
-        <v>10.7</v>
+        <v>12.1</v>
       </c>
       <c r="L45">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="M45">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="N45">
-        <v>4.6</v>
+        <v>5.7</v>
       </c>
       <c r="O45">
-        <v>3.9</v>
+        <v>1.7</v>
       </c>
       <c r="P45">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="Q45">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="R45">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="S45">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="T45">
-        <v>13.4</v>
+        <v>17.3</v>
       </c>
       <c r="U45">
-        <v>11.6</v>
+        <v>14.6</v>
       </c>
       <c r="V45">
-        <v>6.7</v>
+        <v>9.1</v>
       </c>
       <c r="W45">
-        <v>14.7</v>
+        <v>18.4</v>
       </c>
       <c r="X45">
-        <v>6.55</v>
+        <v>8.75</v>
       </c>
       <c r="Y45">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="Z45">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="AA45">
-        <v>0</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -4420,88 +4420,88 @@
         </is>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Luguentz Dort</t>
+          <t>Aaron Wiggins</t>
         </is>
       </c>
       <c r="E46">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="G46">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H46">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="I46">
-        <v>2073</v>
+        <v>1744</v>
       </c>
       <c r="J46">
-        <v>4.5</v>
+        <v>7.3</v>
       </c>
       <c r="K46">
-        <v>10.3</v>
+        <v>15</v>
       </c>
       <c r="L46">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="M46">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="N46">
-        <v>5.1</v>
+        <v>6.1</v>
       </c>
       <c r="O46">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="P46">
+        <v>1.2</v>
+      </c>
+      <c r="Q46">
+        <v>0.4</v>
+      </c>
+      <c r="R46">
         <v>1.4</v>
       </c>
-      <c r="Q46">
-        <v>0.7</v>
-      </c>
-      <c r="R46">
-        <v>0.9</v>
-      </c>
       <c r="S46">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="T46">
-        <v>12.5</v>
+        <v>18.9</v>
       </c>
       <c r="U46">
-        <v>11.3</v>
+        <v>16.1</v>
       </c>
       <c r="V46">
-        <v>13.5</v>
+        <v>14.1</v>
       </c>
       <c r="W46">
-        <v>14.1</v>
+        <v>19.6</v>
       </c>
       <c r="X46">
-        <v>6.95</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="Y46">
-        <v>48</v>
+        <v>21.5</v>
       </c>
       <c r="Z46">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="AA46">
-        <v>0</v>
+        <v>-13.5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -4509,193 +4509,193 @@
         </is>
       </c>
       <c r="C47">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Bennedict Mathurin</t>
+          <t>Andrew Nembhard</t>
         </is>
       </c>
       <c r="E47">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="G47">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="H47">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="I47">
-        <v>2149</v>
+        <v>1881</v>
       </c>
       <c r="J47">
-        <v>6.6</v>
+        <v>4.7</v>
       </c>
       <c r="K47">
-        <v>14.3</v>
+        <v>10.3</v>
       </c>
       <c r="L47">
-        <v>4.6</v>
+        <v>2.1</v>
       </c>
       <c r="M47">
-        <v>5.6</v>
+        <v>2.6</v>
       </c>
       <c r="N47">
-        <v>6.4</v>
+        <v>4.1</v>
       </c>
       <c r="O47">
-        <v>2.3</v>
+        <v>6.2</v>
       </c>
       <c r="P47">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="Q47">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="R47">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="S47">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="T47">
-        <v>19.4</v>
+        <v>12.5</v>
       </c>
       <c r="U47">
-        <v>13.6</v>
+        <v>11.7</v>
       </c>
       <c r="V47">
-        <v>2.8</v>
+        <v>5.3</v>
       </c>
       <c r="W47">
-        <v>17.9</v>
+        <v>16.1</v>
       </c>
       <c r="X47">
-        <v>7.2</v>
+        <v>6.15</v>
       </c>
       <c r="Y47">
-        <v>34.5</v>
+        <v>45</v>
       </c>
       <c r="Z47">
-        <v>34.5</v>
+        <v>30</v>
       </c>
       <c r="AA47">
-        <v>0</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Indiana Pacers</t>
+          <t>OKC Thunder</t>
         </is>
       </c>
       <c r="C48">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Myles Turner</t>
+          <t>Alex Caruso</t>
         </is>
       </c>
       <c r="E48">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="G48">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="H48">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="I48">
-        <v>2174</v>
+        <v>1041</v>
       </c>
       <c r="J48">
-        <v>6.5</v>
+        <v>4.8</v>
       </c>
       <c r="K48">
-        <v>13.4</v>
+        <v>10.9</v>
       </c>
       <c r="L48">
+        <v>1.5</v>
+      </c>
+      <c r="M48">
+        <v>1.8</v>
+      </c>
+      <c r="N48">
+        <v>5.5</v>
+      </c>
+      <c r="O48">
+        <v>4.7</v>
+      </c>
+      <c r="P48">
         <v>3</v>
       </c>
-      <c r="M48">
-        <v>3.9</v>
-      </c>
-      <c r="N48">
-        <v>7.8</v>
-      </c>
-      <c r="O48">
-        <v>1.8</v>
-      </c>
-      <c r="P48">
-        <v>0.9</v>
-      </c>
       <c r="Q48">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="R48">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="S48">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T48">
-        <v>18.5</v>
+        <v>13.2</v>
       </c>
       <c r="U48">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="V48">
-        <v>3.9</v>
+        <v>15.2</v>
       </c>
       <c r="W48">
-        <v>19.2</v>
+        <v>18.7</v>
       </c>
       <c r="X48">
-        <v>10.45</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="Y48">
-        <v>21.5</v>
+        <v>23</v>
       </c>
       <c r="Z48">
-        <v>21.5</v>
+        <v>6</v>
       </c>
       <c r="AA48">
-        <v>0</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>NY Knicks</t>
         </is>
       </c>
       <c r="C49">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Naz Reid</t>
+          <t>Jericho Sims</t>
         </is>
       </c>
       <c r="E49">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -4703,84 +4703,84 @@
         </is>
       </c>
       <c r="G49">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="H49">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="I49">
-        <v>2200</v>
+        <v>422</v>
       </c>
       <c r="J49">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="K49">
-        <v>15.1</v>
+        <v>3.9</v>
       </c>
       <c r="L49">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="M49">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="N49">
-        <v>7.9</v>
+        <v>11</v>
       </c>
       <c r="O49">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="P49">
+        <v>0.7</v>
+      </c>
+      <c r="Q49">
         <v>0.9</v>
-      </c>
-      <c r="Q49">
-        <v>1.2</v>
       </c>
       <c r="R49">
         <v>1.8</v>
       </c>
       <c r="S49">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="T49">
-        <v>18.6</v>
+        <v>5.5</v>
       </c>
       <c r="U49">
-        <v>15.8</v>
+        <v>9.9</v>
       </c>
       <c r="V49">
-        <v>7.1</v>
+        <v>4</v>
       </c>
       <c r="W49">
-        <v>20</v>
+        <v>15.4</v>
       </c>
       <c r="X49">
-        <v>9.9</v>
+        <v>10.4</v>
       </c>
       <c r="Y49">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="Z49">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AA49">
-        <v>0</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>NY Knicks</t>
         </is>
       </c>
       <c r="C50">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Julius Randle</t>
+          <t>Cameron Payne</t>
         </is>
       </c>
       <c r="E50">
@@ -4788,76 +4788,76 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="G50">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H50">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="I50">
-        <v>2226</v>
+        <v>1090</v>
       </c>
       <c r="J50">
-        <v>7.4</v>
+        <v>5.9</v>
       </c>
       <c r="K50">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="L50">
-        <v>4.4</v>
+        <v>1.6</v>
       </c>
       <c r="M50">
-        <v>5.4</v>
+        <v>1.8</v>
       </c>
       <c r="N50">
-        <v>7.9</v>
+        <v>3.4</v>
       </c>
       <c r="O50">
-        <v>5.2</v>
+        <v>6.7</v>
       </c>
       <c r="P50">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="Q50">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="R50">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="S50">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="T50">
-        <v>20.8</v>
+        <v>16.5</v>
       </c>
       <c r="U50">
-        <v>17.5</v>
+        <v>13.8</v>
       </c>
       <c r="V50">
-        <v>3.4</v>
+        <v>9.5</v>
       </c>
       <c r="W50">
-        <v>22.7</v>
+        <v>17.2</v>
       </c>
       <c r="X50">
-        <v>9.75</v>
+        <v>5.65</v>
       </c>
       <c r="Y50">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="Z50">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AA50">
-        <v>0</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -4865,278 +4865,278 @@
         </is>
       </c>
       <c r="C51">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Jalen Williams</t>
+          <t>Jaylin Williams</t>
         </is>
       </c>
       <c r="E51">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="G51">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="H51">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="I51">
-        <v>2237</v>
+        <v>784</v>
       </c>
       <c r="J51">
-        <v>9.1</v>
+        <v>4.5</v>
       </c>
       <c r="K51">
+        <v>10.1</v>
+      </c>
+      <c r="L51">
+        <v>1.1</v>
+      </c>
+      <c r="M51">
+        <v>1.4</v>
+      </c>
+      <c r="N51">
+        <v>12</v>
+      </c>
+      <c r="O51">
+        <v>5.5</v>
+      </c>
+      <c r="P51">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>1.3</v>
+      </c>
+      <c r="R51">
+        <v>1.6</v>
+      </c>
+      <c r="S51">
+        <v>3.6</v>
+      </c>
+      <c r="T51">
+        <v>12.8</v>
+      </c>
+      <c r="U51">
+        <v>16.4</v>
+      </c>
+      <c r="V51">
         <v>18.8</v>
       </c>
-      <c r="L51">
-        <v>3.8</v>
-      </c>
-      <c r="M51">
-        <v>4.8</v>
-      </c>
-      <c r="N51">
-        <v>5.9</v>
-      </c>
-      <c r="O51">
-        <v>5.7</v>
-      </c>
-      <c r="P51">
-        <v>1.8</v>
-      </c>
-      <c r="Q51">
-        <v>0.7</v>
-      </c>
-      <c r="R51">
-        <v>2.4</v>
-      </c>
-      <c r="S51">
-        <v>2.5</v>
-      </c>
-      <c r="T51">
-        <v>24</v>
-      </c>
-      <c r="U51">
-        <v>20.3</v>
-      </c>
-      <c r="V51">
-        <v>9.699999999999999</v>
-      </c>
       <c r="W51">
-        <v>24.3</v>
+        <v>23.8</v>
       </c>
       <c r="X51">
-        <v>10.05</v>
+        <v>15</v>
       </c>
       <c r="Y51">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="Z51">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AA51">
-        <v>0</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
+        <v>66</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>OKC Thunder</t>
+        </is>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Ousmane Dieng</t>
+        </is>
+      </c>
+      <c r="E52">
+        <v>21</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G52">
+        <v>37</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>405</v>
+      </c>
+      <c r="J52">
+        <v>4.8</v>
+      </c>
+      <c r="K52">
+        <v>11.1</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>1.4</v>
+      </c>
+      <c r="N52">
+        <v>7.2</v>
+      </c>
+      <c r="O52">
+        <v>2.8</v>
+      </c>
+      <c r="P52">
+        <v>1.5</v>
+      </c>
+      <c r="Q52">
+        <v>0.6</v>
+      </c>
+      <c r="R52">
+        <v>1.6</v>
+      </c>
+      <c r="S52">
+        <v>2.9</v>
+      </c>
+      <c r="T52">
+        <v>12.6</v>
+      </c>
+      <c r="U52">
+        <v>11.5</v>
+      </c>
+      <c r="V52">
+        <v>6</v>
+      </c>
+      <c r="W52">
+        <v>15.8</v>
+      </c>
+      <c r="X52">
+        <v>8.15</v>
+      </c>
+      <c r="Y52">
         <v>47</v>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>NY Knicks</t>
-        </is>
-      </c>
-      <c r="C52">
-        <v>5</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Jalen Brunson</t>
-        </is>
-      </c>
-      <c r="E52">
-        <v>28</v>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
-      </c>
-      <c r="G52">
-        <v>65</v>
-      </c>
-      <c r="H52">
-        <v>65</v>
-      </c>
-      <c r="I52">
-        <v>2301</v>
-      </c>
-      <c r="J52">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="K52">
-        <v>18.8</v>
-      </c>
-      <c r="L52">
-        <v>5.8</v>
-      </c>
-      <c r="M52">
-        <v>7</v>
-      </c>
-      <c r="N52">
-        <v>2.9</v>
-      </c>
-      <c r="O52">
-        <v>7.4</v>
-      </c>
-      <c r="P52">
-        <v>0.9</v>
-      </c>
-      <c r="Q52">
-        <v>0.1</v>
-      </c>
-      <c r="R52">
-        <v>2.6</v>
-      </c>
-      <c r="S52">
-        <v>2.2</v>
-      </c>
-      <c r="T52">
-        <v>26.4</v>
-      </c>
-      <c r="U52">
-        <v>21.6</v>
-      </c>
-      <c r="V52">
-        <v>2.1</v>
-      </c>
-      <c r="W52">
-        <v>24.2</v>
-      </c>
-      <c r="X52">
-        <v>7.95</v>
-      </c>
-      <c r="Y52">
-        <v>5</v>
-      </c>
       <c r="Z52">
-        <v>5</v>
+        <v>27.5</v>
       </c>
       <c r="AA52">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>OKC Thunder</t>
         </is>
       </c>
       <c r="C53">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Rudy Gobert</t>
+          <t>Adam Flagler</t>
         </is>
       </c>
       <c r="E53">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="G53">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="H53">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>2388</v>
+        <v>203</v>
       </c>
       <c r="J53">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="K53">
-        <v>7.7</v>
+        <v>17</v>
       </c>
       <c r="L53">
-        <v>2.8</v>
+        <v>0.2</v>
       </c>
       <c r="M53">
-        <v>4.1</v>
+        <v>0.4</v>
       </c>
       <c r="N53">
-        <v>11.8</v>
+        <v>4.8</v>
       </c>
       <c r="O53">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="P53">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="Q53">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="R53">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="S53">
         <v>2.7</v>
       </c>
       <c r="T53">
-        <v>13.1</v>
+        <v>11.5</v>
       </c>
       <c r="U53">
-        <v>18.3</v>
+        <v>3.7</v>
       </c>
       <c r="V53">
-        <v>6.7</v>
+        <v>3</v>
       </c>
       <c r="W53">
-        <v>22.4</v>
+        <v>6.3</v>
       </c>
       <c r="X53">
-        <v>15.05</v>
+        <v>-0.25</v>
       </c>
       <c r="Y53">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="Z53">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="AA53">
-        <v>0</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Indiana Pacers</t>
+          <t>NY Knicks</t>
         </is>
       </c>
       <c r="C54">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Tyrese Haliburton</t>
+          <t>Miles McBride</t>
         </is>
       </c>
       <c r="E54">
@@ -5148,250 +5148,250 @@
         </is>
       </c>
       <c r="G54">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="H54">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="I54">
-        <v>2451</v>
+        <v>1593</v>
       </c>
       <c r="J54">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K54">
-        <v>14.8</v>
+        <v>12.4</v>
       </c>
       <c r="L54">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="M54">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="N54">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O54">
-        <v>9.9</v>
+        <v>4.2</v>
       </c>
       <c r="P54">
         <v>1.5</v>
       </c>
       <c r="Q54">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="R54">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="S54">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="T54">
-        <v>20</v>
+        <v>13.8</v>
       </c>
       <c r="U54">
-        <v>21.8</v>
+        <v>12.6</v>
       </c>
       <c r="V54">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="W54">
-        <v>25.1</v>
+        <v>14.6</v>
       </c>
       <c r="X54">
-        <v>11.65</v>
+        <v>6</v>
       </c>
       <c r="Y54">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="Z54">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="AA54">
-        <v>0</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NY Knicks</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
       <c r="C55">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Karl-Anthony Towns</t>
+          <t>Nickeil Alexander-Walker</t>
         </is>
       </c>
       <c r="E55">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="G55">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H55">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="I55">
-        <v>2517</v>
+        <v>2073</v>
       </c>
       <c r="J55">
-        <v>9.1</v>
+        <v>4.7</v>
       </c>
       <c r="K55">
-        <v>17.4</v>
+        <v>10.7</v>
       </c>
       <c r="L55">
-        <v>4.8</v>
+        <v>1.6</v>
       </c>
       <c r="M55">
-        <v>5.8</v>
+        <v>2</v>
       </c>
       <c r="N55">
-        <v>13.2</v>
+        <v>4.6</v>
       </c>
       <c r="O55">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="P55">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="Q55">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="R55">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="S55">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="T55">
-        <v>25.2</v>
+        <v>13.4</v>
       </c>
       <c r="U55">
-        <v>23.4</v>
+        <v>11.6</v>
       </c>
       <c r="V55">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="W55">
-        <v>30.6</v>
+        <v>14.7</v>
       </c>
       <c r="X55">
-        <v>16.55</v>
+        <v>6.55</v>
       </c>
       <c r="Y55">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="Z55">
-        <v>2</v>
+        <v>21.5</v>
       </c>
       <c r="AA55">
-        <v>0</v>
+        <v>-24.5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Indiana Pacers</t>
+          <t>OKC Thunder</t>
         </is>
       </c>
       <c r="C56">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Pascal Siakam</t>
+          <t>Isaiah Joe</t>
         </is>
       </c>
       <c r="E56">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="G56">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H56">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I56">
-        <v>2548</v>
+        <v>1604</v>
       </c>
       <c r="J56">
-        <v>8.699999999999999</v>
+        <v>5.8</v>
       </c>
       <c r="K56">
-        <v>16.7</v>
+        <v>13.2</v>
       </c>
       <c r="L56">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="M56">
+        <v>1.3</v>
+      </c>
+      <c r="N56">
         <v>4.4</v>
       </c>
-      <c r="N56">
-        <v>7.6</v>
-      </c>
       <c r="O56">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="P56">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="Q56">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="R56">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="S56">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="T56">
-        <v>22.3</v>
+        <v>17</v>
       </c>
       <c r="U56">
-        <v>19.2</v>
+        <v>14</v>
       </c>
       <c r="V56">
-        <v>6.3</v>
+        <v>15.5</v>
       </c>
       <c r="W56">
-        <v>23.9</v>
+        <v>16.6</v>
       </c>
       <c r="X56">
-        <v>11.3</v>
+        <v>7.95</v>
       </c>
       <c r="Y56">
-        <v>9.5</v>
+        <v>30.5</v>
       </c>
       <c r="Z56">
-        <v>9.5</v>
+        <v>5</v>
       </c>
       <c r="AA56">
-        <v>0</v>
+        <v>-25.5</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -5399,282 +5399,282 @@
         </is>
       </c>
       <c r="C57">
+        <v>19</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Kenrich Williams</t>
+        </is>
+      </c>
+      <c r="E57">
+        <v>30</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>PF</t>
+        </is>
+      </c>
+      <c r="G57">
+        <v>69</v>
+      </c>
+      <c r="H57">
         <v>7</v>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Shai Gilgeous-Alexander</t>
-        </is>
-      </c>
-      <c r="E57">
-        <v>26</v>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
-      </c>
-      <c r="G57">
-        <v>76</v>
-      </c>
-      <c r="H57">
-        <v>76</v>
-      </c>
       <c r="I57">
-        <v>2598</v>
+        <v>1132</v>
       </c>
       <c r="J57">
-        <v>11.9</v>
+        <v>5.4</v>
       </c>
       <c r="K57">
-        <v>22.9</v>
+        <v>11.3</v>
       </c>
       <c r="L57">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="M57">
-        <v>9.300000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="N57">
-        <v>5.3</v>
+        <v>7.7</v>
       </c>
       <c r="O57">
-        <v>6.7</v>
+        <v>3.1</v>
       </c>
       <c r="P57">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="Q57">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="R57">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="S57">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="T57">
-        <v>34.4</v>
+        <v>13.9</v>
       </c>
       <c r="U57">
-        <v>30.7</v>
+        <v>13.7</v>
       </c>
       <c r="V57">
-        <v>16.9</v>
+        <v>15.1</v>
       </c>
       <c r="W57">
-        <v>33.7</v>
+        <v>18.7</v>
       </c>
       <c r="X57">
-        <v>14.2</v>
+        <v>9.85</v>
       </c>
       <c r="Y57">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="Z57">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA57">
-        <v>0</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>OKC Thunder</t>
         </is>
       </c>
       <c r="C58">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Jaden McDaniels</t>
+          <t>Cason Wallace</t>
         </is>
       </c>
       <c r="E58">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="G58">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="H58">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="I58">
-        <v>2614</v>
+        <v>1876</v>
       </c>
       <c r="J58">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="K58">
-        <v>11.5</v>
+        <v>9.4</v>
       </c>
       <c r="L58">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="M58">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="N58">
-        <v>6.5</v>
+        <v>4.4</v>
       </c>
       <c r="O58">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="P58">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q58">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="R58">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="S58">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="T58">
-        <v>13.8</v>
+        <v>10.9</v>
       </c>
       <c r="U58">
-        <v>13.3</v>
+        <v>12.3</v>
       </c>
       <c r="V58">
-        <v>3.7</v>
+        <v>10.6</v>
       </c>
       <c r="W58">
-        <v>16.3</v>
+        <v>14.8</v>
       </c>
       <c r="X58">
-        <v>8.15</v>
+        <v>7.35</v>
       </c>
       <c r="Y58">
-        <v>36.5</v>
+        <v>40</v>
       </c>
       <c r="Z58">
-        <v>36.5</v>
+        <v>11</v>
       </c>
       <c r="AA58">
-        <v>0</v>
+        <v>-29</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NY Knicks</t>
+          <t>OKC Thunder</t>
         </is>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>OG Anunoby</t>
+          <t>Ajay Mitchell</t>
         </is>
       </c>
       <c r="E59">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="G59">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="H59">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>2706</v>
+        <v>597</v>
       </c>
       <c r="J59">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="K59">
-        <v>13.7</v>
+        <v>11.1</v>
       </c>
       <c r="L59">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="M59">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="N59">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="O59">
-        <v>2.2</v>
+        <v>3.9</v>
       </c>
       <c r="P59">
         <v>1.5</v>
       </c>
       <c r="Q59">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="R59">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="S59">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
       <c r="T59">
-        <v>17.7</v>
+        <v>14.1</v>
       </c>
       <c r="U59">
-        <v>15.4</v>
+        <v>12</v>
       </c>
       <c r="V59">
-        <v>5.2</v>
+        <v>10</v>
       </c>
       <c r="W59">
-        <v>17</v>
+        <v>15.9</v>
       </c>
       <c r="X59">
-        <v>7.8</v>
+        <v>5.85</v>
       </c>
       <c r="Y59">
-        <v>26</v>
+        <v>41.5</v>
       </c>
       <c r="Z59">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="AA59">
-        <v>0</v>
+        <v>-29.5</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>NY Knicks</t>
         </is>
       </c>
       <c r="C60">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Anthony Edwards</t>
+          <t>Landry Shamet</t>
         </is>
       </c>
       <c r="E60">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -5682,165 +5682,165 @@
         </is>
       </c>
       <c r="G60">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="H60">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>2871</v>
+        <v>762</v>
       </c>
       <c r="J60">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K60">
-        <v>20.2</v>
+        <v>10.9</v>
       </c>
       <c r="L60">
-        <v>5.2</v>
+        <v>0.6</v>
       </c>
       <c r="M60">
-        <v>6.2</v>
+        <v>0.9</v>
       </c>
       <c r="N60">
-        <v>5.6</v>
+        <v>2.9</v>
       </c>
       <c r="O60">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="P60">
         <v>1.1</v>
       </c>
       <c r="Q60">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="R60">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="S60">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="T60">
-        <v>27.3</v>
+        <v>13.5</v>
       </c>
       <c r="U60">
-        <v>20.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="V60">
-        <v>4.7</v>
+        <v>6.4</v>
       </c>
       <c r="W60">
-        <v>23.2</v>
+        <v>11.6</v>
       </c>
       <c r="X60">
-        <v>9.199999999999999</v>
+        <v>4.6</v>
       </c>
       <c r="Y60">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="Z60">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AA60">
-        <v>0</v>
+        <v>-31</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>NY Knicks</t>
+          <t>OKC Thunder</t>
         </is>
       </c>
       <c r="C61">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Josh Hart</t>
+          <t>Dillon Jones</t>
         </is>
       </c>
       <c r="E61">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="G61">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="H61">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="I61">
-        <v>2897</v>
+        <v>551</v>
       </c>
       <c r="J61">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="K61">
-        <v>9.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L61">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="M61">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="N61">
-        <v>9.199999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="O61">
-        <v>5.6</v>
+        <v>3.8</v>
       </c>
       <c r="P61">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="Q61">
         <v>0.3</v>
       </c>
       <c r="R61">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S61">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="T61">
-        <v>13.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="U61">
-        <v>16.5</v>
+        <v>8.1</v>
       </c>
       <c r="V61">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="W61">
-        <v>22.3</v>
+        <v>13.6</v>
       </c>
       <c r="X61">
-        <v>12.65</v>
+        <v>6.6</v>
       </c>
       <c r="Y61">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="Z61">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA61">
-        <v>0</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>NY Knicks</t>
+          <t>OKC Thunder</t>
         </is>
       </c>
       <c r="C62">
@@ -5848,11 +5848,11 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Mikal Bridges</t>
+          <t>Luguentz Dort</t>
         </is>
       </c>
       <c r="E62">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -5860,67 +5860,67 @@
         </is>
       </c>
       <c r="G62">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H62">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I62">
-        <v>3036</v>
+        <v>2073</v>
       </c>
       <c r="J62">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="K62">
-        <v>14</v>
+        <v>10.3</v>
       </c>
       <c r="L62">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="M62">
+        <v>0.8</v>
+      </c>
+      <c r="N62">
+        <v>5.1</v>
+      </c>
+      <c r="O62">
+        <v>2</v>
+      </c>
+      <c r="P62">
         <v>1.4</v>
       </c>
-      <c r="N62">
-        <v>3.1</v>
-      </c>
-      <c r="O62">
+      <c r="Q62">
+        <v>0.7</v>
+      </c>
+      <c r="R62">
+        <v>0.9</v>
+      </c>
+      <c r="S62">
         <v>3.6</v>
       </c>
-      <c r="P62">
-        <v>0.9</v>
-      </c>
-      <c r="Q62">
-        <v>0.5</v>
-      </c>
-      <c r="R62">
-        <v>1.6</v>
-      </c>
-      <c r="S62">
-        <v>1.5</v>
-      </c>
       <c r="T62">
-        <v>17.1</v>
+        <v>12.5</v>
       </c>
       <c r="U62">
-        <v>14</v>
+        <v>11.3</v>
       </c>
       <c r="V62">
-        <v>5.6</v>
+        <v>13.5</v>
       </c>
       <c r="W62">
-        <v>15.8</v>
+        <v>14.1</v>
       </c>
       <c r="X62">
-        <v>6.1</v>
+        <v>6.95</v>
       </c>
       <c r="Y62">
-        <v>30.5</v>
+        <v>48</v>
       </c>
       <c r="Z62">
-        <v>30.5</v>
+        <v>9</v>
       </c>
       <c r="AA62">
-        <v>0</v>
+        <v>-39</v>
       </c>
     </row>
   </sheetData>
